--- a/Python/Rascunhos/02_Excel_data.xlsx
+++ b/Python/Rascunhos/02_Excel_data.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="465" windowWidth="25605" windowHeight="15465" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="address" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ventas" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Olimpiadas" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="nova_folha" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="address" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ventas" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Olimpiadas" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="nova_folha" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1" concurrentCalc="0"/>
@@ -141,14 +141,14 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <style val="25"/>
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -167,22 +167,46 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'ventas'!A2</f>
+              <f>'ventas'!B1</f>
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'ventas'!$A$1:$B$1</f>
+              <f>'ventas'!$B$1:$G$1</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ventas'!$A$3:$A$5</f>
+              <f>'ventas'!$B$2:$B$7</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <strRef>
+              <f>'ventas'!C1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'ventas'!$B$1:$G$1</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'ventas'!$C$2:$C$7</f>
             </numRef>
           </val>
         </ser>
@@ -198,8 +222,8 @@
         <title>
           <tx>
             <rich>
-              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:bodyPr/>
+              <a:p>
                 <a:pPr>
                   <a:defRPr/>
                 </a:pPr>
@@ -225,13 +249,13 @@
         <title>
           <tx>
             <rich>
-              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:bodyPr/>
+              <a:p>
                 <a:pPr>
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:t>Produtos</a:t>
+                  <a:t>Quantidade</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -252,7 +276,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>0</col>
@@ -267,9 +291,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1077,7 +1101,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -1091,6 +1115,6 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>